--- a/src/main/resources/templates/bourse_full.xlsx
+++ b/src/main/resources/templates/bourse_full.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13995" windowHeight="5610"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13995" windowHeight="5610" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="perso" sheetId="2" r:id="rId2"/>
-    <sheet name="graph" sheetId="3" r:id="rId3"/>
+    <sheet name="indicateurs" sheetId="4" r:id="rId2"/>
+    <sheet name="synthese" sheetId="5" r:id="rId3"/>
+    <sheet name="reco" sheetId="2" r:id="rId4"/>
+    <sheet name="graph" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="246">
   <si>
     <t>AXA</t>
   </si>
@@ -573,9 +575,6 @@
   </si>
   <si>
     <t>15/04/2020</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>FR0011981968 WLN</t>
@@ -768,7 +767,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -874,7 +872,7 @@
             <c:strRef>
               <c:f>data!$A$6:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>01/12/2019</c:v>
                 </c:pt>
@@ -889,6 +887,15 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>14/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -913,6 +920,15 @@
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>15.587999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>15.002000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>14.656000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>15.022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -940,7 +956,7 @@
             <c:strRef>
               <c:f>data!$A$6:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>01/12/2019</c:v>
                 </c:pt>
@@ -955,6 +971,15 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>14/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -979,6 +1004,15 @@
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>15.066000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>13.933999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>13.401999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>14.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1006,7 +1040,7 @@
             <c:strRef>
               <c:f>data!$A$6:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>01/12/2019</c:v>
                 </c:pt>
@@ -1021,6 +1055,15 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>14/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1045,6 +1088,15 @@
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>28.29</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>26.56</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>25.48</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>26.035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1072,7 +1124,7 @@
             <c:strRef>
               <c:f>data!$A$6:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>01/12/2019</c:v>
                 </c:pt>
@@ -1087,6 +1139,15 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>14/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1111,6 +1172,15 @@
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>6.87</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>6.468</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>6.28</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>6.5119999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1138,7 +1208,7 @@
             <c:strRef>
               <c:f>data!$A$6:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>01/12/2019</c:v>
                 </c:pt>
@@ -1153,6 +1223,15 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>14/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1177,6 +1256,15 @@
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>27.8</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>25.67</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>24.88</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>26.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1204,7 +1292,7 @@
             <c:strRef>
               <c:f>data!$A$6:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>01/12/2019</c:v>
                 </c:pt>
@@ -1219,6 +1307,15 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>14/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1243,6 +1340,15 @@
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>9.7840000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>9.5380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>9.3119999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>9.5579999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1270,7 +1376,7 @@
             <c:strRef>
               <c:f>data!$A$6:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>01/12/2019</c:v>
                 </c:pt>
@@ -1285,6 +1391,15 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>14/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1309,6 +1424,15 @@
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>25.57</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>24.05</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>24.24</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>24.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1336,7 +1460,7 @@
             <c:strRef>
               <c:f>data!$A$6:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>01/12/2019</c:v>
                 </c:pt>
@@ -1351,6 +1475,15 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>14/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1375,6 +1508,15 @@
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>13.95</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>13.85</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>13.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1391,11 +1533,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126934016"/>
-        <c:axId val="157175744"/>
+        <c:axId val="190590464"/>
+        <c:axId val="159928256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126934016"/>
+        <c:axId val="190590464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1404,7 +1546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157175744"/>
+        <c:crossAx val="159928256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1412,7 +1554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157175744"/>
+        <c:axId val="159928256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1423,7 +1565,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126934016"/>
+        <c:crossAx val="190590464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1737,7 +1879,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1747,16 +1889,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="11.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="10" max="40" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.42578125" style="3" collapsed="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="40" width="12.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.25">
@@ -2037,94 +2178,94 @@
         <v>149</v>
       </c>
       <c r="K4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="X4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Y4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AA4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AB4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AC4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AD4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AE4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AH4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AI4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AJ4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AK4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AL4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AM4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AN4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AO4" t="s">
         <v>85</v>
@@ -2237,94 +2378,94 @@
         <v>150</v>
       </c>
       <c r="K5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="V5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="W5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="X5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Y5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Z5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AA5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AC5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AE5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AH5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AI5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AK5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AM5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AN5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AO5" t="s">
         <v>86</v>
@@ -3107,599 +3248,599 @@
       <c r="A11" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B11" t="n">
-        <v>15.002</v>
-      </c>
-      <c r="C11" t="n">
-        <v>13.934</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="B11">
+        <v>15.002000000000001</v>
+      </c>
+      <c r="C11">
+        <v>13.933999999999999</v>
+      </c>
+      <c r="D11">
         <v>26.56</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>6.468</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>25.67</v>
       </c>
-      <c r="G11" t="n">
-        <v>9.538</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G11">
+        <v>9.5380000000000003</v>
+      </c>
+      <c r="H11">
         <v>24.05</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>13.95</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>346.5</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>58.44</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>20.82</v>
       </c>
-      <c r="M11" t="n">
-        <v>74.04</v>
-      </c>
-      <c r="N11" t="n">
-        <v>18.925</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="M11">
+        <v>74.040000000000006</v>
+      </c>
+      <c r="N11">
+        <v>18.925000000000001</v>
+      </c>
+      <c r="O11">
         <v>30.895</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>70.36</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>21.14</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>66.42</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11">
         <v>80.72</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11">
         <v>84.48</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11">
         <v>75.86</v>
       </c>
-      <c r="V11" t="n">
-        <v>17.136</v>
-      </c>
-      <c r="W11" t="n">
+      <c r="V11">
+        <v>17.135999999999999</v>
+      </c>
+      <c r="W11">
         <v>28.52</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11">
         <v>84.42</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11">
         <v>11.435</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11">
         <v>137.9</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA11">
         <v>12.21</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11">
         <v>14.215</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11">
         <v>61.74</v>
       </c>
-      <c r="AD11" t="n">
-        <v>132.95</v>
-      </c>
-      <c r="AE11" t="n">
+      <c r="AD11">
+        <v>132.94999999999999</v>
+      </c>
+      <c r="AE11">
         <v>106.35</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11">
         <v>676.4</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG11">
         <v>481.5</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AH11">
         <v>253.9</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AI11">
         <v>58.66</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AJ11">
         <v>80.22</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AK11">
         <v>27.74</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AL11">
         <v>59.54</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AM11">
         <v>57.18</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AN11">
         <v>123.4</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AO11">
         <v>150.13</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AP11">
         <v>88.45</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AQ11">
         <v>287.05</v>
       </c>
-      <c r="AR11" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="AS11" t="n">
+      <c r="AR11">
+        <v>106</v>
+      </c>
+      <c r="AS11">
         <v>84.56</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AT11">
         <v>42.78</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AU11">
         <v>48.91</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="AV11">
         <v>35.39</v>
       </c>
-      <c r="AW11" t="n">
+      <c r="AW11">
         <v>42.41</v>
       </c>
-      <c r="AX11" t="n">
+      <c r="AX11">
         <v>178.32</v>
       </c>
-      <c r="AY11" t="n">
+      <c r="AY11">
         <v>207.27</v>
       </c>
-      <c r="AZ11" t="n">
+      <c r="AZ11">
         <v>123.89</v>
       </c>
-      <c r="BA11" t="n">
+      <c r="BA11">
         <v>60.66</v>
       </c>
-      <c r="BB11" t="n">
+      <c r="BB11">
         <v>95.47</v>
       </c>
-      <c r="BC11" t="n">
-        <v>145.98</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>184.0</v>
-      </c>
-      <c r="BE11" t="n">
+      <c r="BC11">
+        <v>145.97999999999999</v>
+      </c>
+      <c r="BD11">
+        <v>184</v>
+      </c>
+      <c r="BE11">
         <v>87.49</v>
       </c>
-      <c r="BF11" t="n">
+      <c r="BF11">
         <v>36.44</v>
       </c>
-      <c r="BG11" t="n">
+      <c r="BG11">
         <v>120.99</v>
       </c>
-      <c r="BH11" t="n">
+      <c r="BH11">
         <v>108.03</v>
       </c>
-      <c r="BI11" t="n">
+      <c r="BI11">
         <v>86.14</v>
       </c>
-      <c r="BJ11" t="n">
+      <c r="BJ11">
         <v>58.12</v>
       </c>
-      <c r="BK11" t="n">
+      <c r="BK11">
         <v>174.61</v>
       </c>
-      <c r="BL11" t="n">
+      <c r="BL11">
         <v>46.38</v>
       </c>
-      <c r="BM11" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="BN11" t="n">
+      <c r="BM11">
+        <v>106</v>
+      </c>
+      <c r="BN11">
         <v>54.93</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="B12" t="n">
-        <v>14.656</v>
-      </c>
-      <c r="C12" t="n">
-        <v>13.402</v>
-      </c>
-      <c r="D12" t="n">
+        <v>244</v>
+      </c>
+      <c r="B12">
+        <v>14.656000000000001</v>
+      </c>
+      <c r="C12">
+        <v>13.401999999999999</v>
+      </c>
+      <c r="D12">
         <v>25.48</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>6.28</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>24.88</v>
       </c>
-      <c r="G12" t="n">
-        <v>9.312</v>
-      </c>
-      <c r="H12" t="n">
+      <c r="G12">
+        <v>9.3119999999999994</v>
+      </c>
+      <c r="H12">
         <v>24.24</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>13.85</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>344.05</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>56.76</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>20.41</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>72.56</v>
       </c>
-      <c r="N12" t="n">
-        <v>19.35</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="N12">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="O12">
         <v>30.53</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>68.92</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>20.84</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>62.32</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12">
         <v>79.7</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12">
         <v>84.41</v>
       </c>
-      <c r="U12" t="n">
-        <v>75.96</v>
-      </c>
-      <c r="V12" t="n">
-        <v>16.548</v>
-      </c>
-      <c r="W12" t="n">
+      <c r="U12">
+        <v>75.959999999999994</v>
+      </c>
+      <c r="V12">
+        <v>16.547999999999998</v>
+      </c>
+      <c r="W12">
         <v>26.51</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12">
         <v>82.42</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12">
         <v>11.185</v>
       </c>
-      <c r="Z12" t="n">
-        <v>135.95</v>
-      </c>
-      <c r="AA12" t="n">
+      <c r="Z12">
+        <v>135.94999999999999</v>
+      </c>
+      <c r="AA12">
         <v>11.635</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12">
         <v>13.95</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC12">
         <v>61.64</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD12">
         <v>138.85</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE12">
         <v>108.45</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF12">
         <v>688.2</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG12">
         <v>481.9</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH12">
         <v>242.7</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI12">
         <v>57.46</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AJ12">
         <v>78.52</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK12">
         <v>26.04</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AL12">
         <v>59.48</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AM12">
         <v>54.89</v>
       </c>
-      <c r="AN12" t="n">
-        <v>121.0</v>
-      </c>
-      <c r="AO12" t="n">
+      <c r="AN12">
+        <v>121</v>
+      </c>
+      <c r="AO12">
         <v>145.21</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AP12">
         <v>83.79</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AQ12">
         <v>284.43</v>
       </c>
-      <c r="AR12" t="n">
-        <v>117.0</v>
-      </c>
-      <c r="AS12" t="n">
+      <c r="AR12">
+        <v>117</v>
+      </c>
+      <c r="AS12">
         <v>82.52</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="AT12">
         <v>41.52</v>
       </c>
-      <c r="AU12" t="n">
+      <c r="AU12">
         <v>47.61</v>
       </c>
-      <c r="AV12" t="n">
+      <c r="AV12">
         <v>32.21</v>
       </c>
-      <c r="AW12" t="n">
+      <c r="AW12">
         <v>40.51</v>
       </c>
-      <c r="AX12" t="n">
+      <c r="AX12">
         <v>178.5</v>
       </c>
-      <c r="AY12" t="n">
+      <c r="AY12">
         <v>198.51</v>
       </c>
-      <c r="AZ12" t="n">
+      <c r="AZ12">
         <v>118.69</v>
       </c>
-      <c r="BA12" t="n">
+      <c r="BA12">
         <v>58.87</v>
       </c>
-      <c r="BB12" t="n">
+      <c r="BB12">
         <v>90.82</v>
       </c>
-      <c r="BC12" t="n">
+      <c r="BC12">
         <v>147.65</v>
       </c>
-      <c r="BD12" t="n">
-        <v>177.725</v>
-      </c>
-      <c r="BE12" t="n">
+      <c r="BD12">
+        <v>177.72499999999999</v>
+      </c>
+      <c r="BE12">
         <v>85.08</v>
       </c>
-      <c r="BF12" t="n">
-        <v>35.98</v>
-      </c>
-      <c r="BG12" t="n">
+      <c r="BF12">
+        <v>35.979999999999997</v>
+      </c>
+      <c r="BG12">
         <v>121.27</v>
       </c>
-      <c r="BH12" t="n">
+      <c r="BH12">
         <v>102.23</v>
       </c>
-      <c r="BI12" t="n">
+      <c r="BI12">
         <v>86.14</v>
       </c>
-      <c r="BJ12" t="n">
+      <c r="BJ12">
         <v>56.94</v>
       </c>
-      <c r="BK12" t="n">
+      <c r="BK12">
         <v>165.96</v>
       </c>
-      <c r="BL12" t="n">
+      <c r="BL12">
         <v>43.44</v>
       </c>
-      <c r="BM12" t="n">
+      <c r="BM12">
         <v>103.38</v>
       </c>
-      <c r="BN12" t="n">
+      <c r="BN12">
         <v>54.99</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B13" t="n">
+        <v>245</v>
+      </c>
+      <c r="B13">
         <v>15.022</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>14.03</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>26.035</v>
       </c>
-      <c r="E13" t="n">
-        <v>6.512</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E13">
+        <v>6.5119999999999996</v>
+      </c>
+      <c r="F13">
         <v>26.14</v>
       </c>
-      <c r="G13" t="n">
-        <v>9.558</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="G13">
+        <v>9.5579999999999998</v>
+      </c>
+      <c r="H13">
         <v>24.9</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>13.95</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>360.25</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>59.08</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>20.34</v>
       </c>
-      <c r="M13" t="n">
-        <v>77.1</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="M13">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="N13">
         <v>20.27</v>
       </c>
-      <c r="O13" t="n">
-        <v>31.385</v>
-      </c>
-      <c r="P13" t="n">
+      <c r="O13">
+        <v>31.385000000000002</v>
+      </c>
+      <c r="P13">
         <v>73.08</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13">
         <v>21.54</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>64.94</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13">
         <v>83.84</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13">
         <v>86.4</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13">
         <v>81.72</v>
       </c>
-      <c r="V13" t="n">
-        <v>16.582</v>
-      </c>
-      <c r="W13" t="n">
+      <c r="V13">
+        <v>16.582000000000001</v>
+      </c>
+      <c r="W13">
         <v>26.34</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X13">
         <v>89.14</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y13">
         <v>11.445</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z13">
         <v>139.9</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA13">
         <v>11.6</v>
       </c>
-      <c r="AB13" t="n">
-        <v>13.905</v>
-      </c>
-      <c r="AC13" t="n">
+      <c r="AB13">
+        <v>13.904999999999999</v>
+      </c>
+      <c r="AC13">
         <v>63.84</v>
       </c>
-      <c r="AD13" t="n">
-        <v>140.0</v>
-      </c>
-      <c r="AE13" t="n">
+      <c r="AD13">
+        <v>140</v>
+      </c>
+      <c r="AE13">
         <v>108.5</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF13">
         <v>686.6</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG13">
         <v>509.4</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AH13">
         <v>250.3</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AI13">
         <v>59.92</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AJ13">
         <v>81.86</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AK13">
         <v>26.99</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AL13">
         <v>63.58</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AM13">
         <v>57.57</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AN13">
         <v>121.05</v>
       </c>
-      <c r="AO13" t="n">
-        <v>144.86</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>81.32</v>
-      </c>
-      <c r="AQ13" t="n">
+      <c r="AO13">
+        <v>144.86000000000001</v>
+      </c>
+      <c r="AP13">
+        <v>81.319999999999993</v>
+      </c>
+      <c r="AQ13">
         <v>286.69</v>
       </c>
-      <c r="AR13" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="AT13" t="n">
+      <c r="AR13">
+        <v>106</v>
+      </c>
+      <c r="AS13">
+        <v>80</v>
+      </c>
+      <c r="AT13">
         <v>41.5</v>
       </c>
-      <c r="AU13" t="n">
+      <c r="AU13">
         <v>47.1</v>
       </c>
-      <c r="AV13" t="n">
+      <c r="AV13">
         <v>31.62</v>
       </c>
-      <c r="AW13" t="n">
+      <c r="AW13">
         <v>39.14</v>
       </c>
-      <c r="AX13" t="n">
+      <c r="AX13">
         <v>177.03</v>
       </c>
-      <c r="AY13" t="n">
+      <c r="AY13">
         <v>199.84</v>
       </c>
-      <c r="AZ13" t="n">
+      <c r="AZ13">
         <v>115.69</v>
       </c>
-      <c r="BA13" t="n">
+      <c r="BA13">
         <v>60.79</v>
       </c>
-      <c r="BB13" t="n">
+      <c r="BB13">
         <v>87.32</v>
       </c>
-      <c r="BC13" t="n">
+      <c r="BC13">
         <v>149.74</v>
       </c>
-      <c r="BD13" t="n">
+      <c r="BD13">
         <v>179.51</v>
       </c>
-      <c r="BE13" t="n">
+      <c r="BE13">
         <v>86.3</v>
       </c>
-      <c r="BF13" t="n">
+      <c r="BF13">
         <v>35.93</v>
       </c>
-      <c r="BG13" t="n">
+      <c r="BG13">
         <v>121.54</v>
       </c>
-      <c r="BH13" t="n">
+      <c r="BH13">
         <v>99.8</v>
       </c>
-      <c r="BI13" t="n">
+      <c r="BI13">
         <v>86.14</v>
       </c>
-      <c r="BJ13" t="n">
+      <c r="BJ13">
         <v>57.68</v>
       </c>
-      <c r="BK13" t="n">
+      <c r="BK13">
         <v>162.41</v>
       </c>
-      <c r="BL13" t="n">
+      <c r="BL13">
         <v>43.23</v>
       </c>
-      <c r="BM13" t="n">
+      <c r="BM13">
         <v>101.99</v>
       </c>
-      <c r="BN13" t="n">
+      <c r="BN13">
         <v>56.95</v>
       </c>
     </row>
@@ -3769,6 +3910,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -4017,7 +4182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/main/resources/templates/bourse_full.xlsx
+++ b/src/main/resources/templates/bourse_full.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13995" windowHeight="5610" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13995" windowHeight="5610" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="254">
   <si>
     <t>AXA</t>
   </si>
@@ -761,12 +761,37 @@
   </si>
   <si>
     <t>17/04/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>diff from ref (%)</t>
+  </si>
+  <si>
+    <t>% ref</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>% 1 week</t>
+  </si>
+  <si>
+    <t>% 2 days</t>
+  </si>
+  <si>
+    <t>20/04/2020</t>
+  </si>
+  <si>
+    <t>21/04/2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -805,7 +830,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="733">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -813,6 +838,732 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1533,11 +2284,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="190590464"/>
-        <c:axId val="159928256"/>
+        <c:axId val="193041408"/>
+        <c:axId val="161371200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190590464"/>
+        <c:axId val="193041408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1546,7 +2297,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159928256"/>
+        <c:crossAx val="161371200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1554,7 +2305,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159928256"/>
+        <c:axId val="161371200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1565,14 +2316,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190590464"/>
+        <c:crossAx val="193041408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1879,7 +2629,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1895,9 +2645,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="3" collapsed="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="40" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" style="3" width="11.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="9" max="40" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.25">
@@ -3845,10 +4595,404 @@
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B14" t="n">
+        <v>14.878</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13.632</v>
+      </c>
+      <c r="D14" t="n">
+        <v>25.01</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6.454</v>
+      </c>
+      <c r="F14" t="n">
+        <v>25.76</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9.356</v>
+      </c>
+      <c r="H14" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="I14" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>353.7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>21.34</v>
+      </c>
+      <c r="M14" t="n">
+        <v>73.18</v>
+      </c>
+      <c r="N14" t="n">
+        <v>19.135</v>
+      </c>
+      <c r="O14" t="n">
+        <v>29.825</v>
+      </c>
+      <c r="P14" t="n">
+        <v>72.16</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>20.66</v>
+      </c>
+      <c r="R14" t="n">
+        <v>66.6</v>
+      </c>
+      <c r="S14" t="n">
+        <v>81.82</v>
+      </c>
+      <c r="T14" t="n">
+        <v>85.52</v>
+      </c>
+      <c r="U14" t="n">
+        <v>79.74</v>
+      </c>
+      <c r="V14" t="n">
+        <v>16.336</v>
+      </c>
+      <c r="W14" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>11.275</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>139.4</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>14.01</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>63.04</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>136.7</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>110.8</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>689.4</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>501.4</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>245.8</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>80.92</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>119.55</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>146.38</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>87.38</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>282.8</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>42.48</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>48.07</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>43.21</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>183.41</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>209.4</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>120.11</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>60.36</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>151.92</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>89.87</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>124.66</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>105.1</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>86.14</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>58.47</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>169.37</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>106.65</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>56.6</v>
+      </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14.668</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="D15" t="n">
+        <v>24.85</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6.364</v>
+      </c>
+      <c r="F15" t="n">
+        <v>26.26</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9.21</v>
+      </c>
+      <c r="H15" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="I15" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>354.45</v>
+      </c>
+      <c r="K15" t="n">
+        <v>59.64</v>
+      </c>
+      <c r="L15" t="n">
+        <v>20.69</v>
+      </c>
+      <c r="M15" t="n">
+        <v>72.28</v>
+      </c>
+      <c r="N15" t="n">
+        <v>17.785</v>
+      </c>
+      <c r="O15" t="n">
+        <v>29.48</v>
+      </c>
+      <c r="P15" t="n">
+        <v>71.46</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>20.58</v>
+      </c>
+      <c r="R15" t="n">
+        <v>66.9</v>
+      </c>
+      <c r="S15" t="n">
+        <v>82.38</v>
+      </c>
+      <c r="T15" t="n">
+        <v>88.39</v>
+      </c>
+      <c r="U15" t="n">
+        <v>76.88</v>
+      </c>
+      <c r="V15" t="n">
+        <v>16.222</v>
+      </c>
+      <c r="W15" t="n">
+        <v>25.23</v>
+      </c>
+      <c r="X15" t="n">
+        <v>86.82</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>13.855</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>63.24</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>135.1</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>684.6</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>497.8</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>254.8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>55.96</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>80.54</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>25.59</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>64.78</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>53.02</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>119.4</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>143.7</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>84.01</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>276.93</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>83.51</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>42.54</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>46.59</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>31.53</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>41.18</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>206.16</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>120.58</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>59.18</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>91.64</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>151.83</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>181.7</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>87.86</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>36.08</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>120.58</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>101.75</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>86.14</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>58.15</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>164.22</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>42.85</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>102.21</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>56.97</v>
+      </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -3910,13 +5054,937 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="568" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="C2" t="n" s="569">
+        <v>-0.06</v>
+      </c>
+      <c r="D2" t="n" s="570">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="571" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="C3" t="n" s="572">
+        <v>-0.11</v>
+      </c>
+      <c r="D3" t="n" s="573">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="574" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="C4" t="n" s="575">
+        <v>-0.12</v>
+      </c>
+      <c r="D4" t="n" s="576">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="577" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="C5" t="n" s="578">
+        <v>-0.07</v>
+      </c>
+      <c r="D5" t="n" s="579">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="580" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="C6" t="n" s="581">
+        <v>-0.06</v>
+      </c>
+      <c r="D6" t="n" s="582">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="583" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="C7" t="n" s="584">
+        <v>-0.06</v>
+      </c>
+      <c r="D7" t="n" s="585">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="586" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="C8" t="n" s="587">
+        <v>-0.06</v>
+      </c>
+      <c r="D8" t="n" s="588">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="589" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="C9" t="n" s="590">
+        <v>-0.13</v>
+      </c>
+      <c r="D9" t="n" s="591">
+        <v>-0.07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="592" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="C10" t="n" s="593">
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="n" s="594">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="595" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" t="n" s="596">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="597" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D12" t="n" s="598">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="599" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D13" t="n" s="600">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="601" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D14" t="n" s="602">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" s="603" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>249</v>
+      </c>
+      <c r="D15" t="n" s="604">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" s="605" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>249</v>
+      </c>
+      <c r="D16" t="n" s="606">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="607" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="C17" t="s">
+        <v>249</v>
+      </c>
+      <c r="D17" t="n" s="608">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="609" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>249</v>
+      </c>
+      <c r="D18" t="n" s="610">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" s="611" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="C19" t="s">
+        <v>249</v>
+      </c>
+      <c r="D19" t="n" s="612">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" s="613" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C20" t="s">
+        <v>249</v>
+      </c>
+      <c r="D20" t="n" s="614">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" s="615" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>249</v>
+      </c>
+      <c r="D21" t="n" s="616">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" s="617" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D22" t="n" s="618">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" s="619" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>249</v>
+      </c>
+      <c r="D23" t="n" s="620">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" s="621" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>249</v>
+      </c>
+      <c r="D24" t="n" s="622">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>213</v>
+      </c>
+      <c r="B25" s="623" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25" t="n" s="624">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B26" s="625" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>249</v>
+      </c>
+      <c r="D26" t="n" s="626">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B27" s="627" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>249</v>
+      </c>
+      <c r="D27" t="n" s="628">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>219</v>
+      </c>
+      <c r="B28" s="629" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="C28" t="s">
+        <v>249</v>
+      </c>
+      <c r="D28" t="n" s="630">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>221</v>
+      </c>
+      <c r="B29" s="631" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>249</v>
+      </c>
+      <c r="D29" t="n" s="632">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>223</v>
+      </c>
+      <c r="B30" s="633" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="C30" t="s">
+        <v>249</v>
+      </c>
+      <c r="D30" t="n" s="634">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>225</v>
+      </c>
+      <c r="B31" s="635" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="C31" t="s">
+        <v>249</v>
+      </c>
+      <c r="D31" t="n" s="636">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>227</v>
+      </c>
+      <c r="B32" s="637" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>249</v>
+      </c>
+      <c r="D32" t="n" s="638">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>229</v>
+      </c>
+      <c r="B33" s="639" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="C33" t="s">
+        <v>249</v>
+      </c>
+      <c r="D33" t="n" s="640">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>231</v>
+      </c>
+      <c r="B34" s="641" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="C34" t="s">
+        <v>249</v>
+      </c>
+      <c r="D34" t="n" s="642">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>233</v>
+      </c>
+      <c r="B35" s="643" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>249</v>
+      </c>
+      <c r="D35" t="n" s="644">
+        <v>-0.07</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>235</v>
+      </c>
+      <c r="B36" s="645" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>249</v>
+      </c>
+      <c r="D36" t="n" s="646">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>237</v>
+      </c>
+      <c r="B37" s="647" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="C37" t="s">
+        <v>249</v>
+      </c>
+      <c r="D37" t="n" s="648">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>239</v>
+      </c>
+      <c r="B38" s="649" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>249</v>
+      </c>
+      <c r="D38" t="n" s="650">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>241</v>
+      </c>
+      <c r="B39" s="651" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>249</v>
+      </c>
+      <c r="D39" t="n" s="652">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>243</v>
+      </c>
+      <c r="B40" s="653" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="C40" t="s">
+        <v>249</v>
+      </c>
+      <c r="D40" t="n" s="654">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="655" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="C41" t="n" s="656">
+        <v>-0.02</v>
+      </c>
+      <c r="D41" t="n" s="657">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="658" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="C42" t="n" s="659">
+        <v>-0.07</v>
+      </c>
+      <c r="D42" t="n" s="660">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="661" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C43" t="n" s="662">
+        <v>-0.01</v>
+      </c>
+      <c r="D43" t="n" s="663">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="664" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="C44" t="n" s="665">
+        <v>-0.07</v>
+      </c>
+      <c r="D44" t="n" s="666">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="667" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="C45" t="n" s="668">
+        <v>-0.02</v>
+      </c>
+      <c r="D45" t="n" s="669">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="670" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="C46" t="n" s="671">
+        <v>0.03</v>
+      </c>
+      <c r="D46" t="n" s="672">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="673" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="C47" t="n" s="674">
+        <v>-0.01</v>
+      </c>
+      <c r="D47" t="n" s="675">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="676" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="C48" t="n" s="677">
+        <v>-0.1</v>
+      </c>
+      <c r="D48" t="n" s="678">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="679" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="C49" t="n" s="680">
+        <v>-0.04</v>
+      </c>
+      <c r="D49" t="n" s="681">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="682" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="C50" t="n" s="683">
+        <v>0.01</v>
+      </c>
+      <c r="D50" t="n" s="684">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="685" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="C51" t="n" s="686">
+        <v>0.04</v>
+      </c>
+      <c r="D51" t="n" s="687">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="688" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="C52" t="n" s="689">
+        <v>-0.01</v>
+      </c>
+      <c r="D52" t="n" s="690">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="691" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C53" t="n" s="692">
+        <v>0.01</v>
+      </c>
+      <c r="D53" t="n" s="693">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="694" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="C54" t="n" s="695">
+        <v>-0.07</v>
+      </c>
+      <c r="D54" t="n" s="696">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="697" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C55" t="n" s="698">
+        <v>0.08</v>
+      </c>
+      <c r="D55" t="n" s="699">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="700" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="C56" t="n" s="701">
+        <v>0.01</v>
+      </c>
+      <c r="D56" t="n" s="702">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="703" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="C57" t="n" s="704">
+        <v>0.04</v>
+      </c>
+      <c r="D57" t="n" s="705">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="706" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="C58" t="n" s="707">
+        <v>0.03</v>
+      </c>
+      <c r="D58" t="n" s="708">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="709" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="C59" t="n" s="710">
+        <v>0.04</v>
+      </c>
+      <c r="D59" t="n" s="711">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="712" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="C60" t="n" s="713">
+        <v>-0.04</v>
+      </c>
+      <c r="D60" t="n" s="714">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" s="715" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="C61" t="n" s="716">
+        <v>0.0</v>
+      </c>
+      <c r="D61" t="n" s="717">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" s="718" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="C62" t="n" s="719">
+        <v>0.03</v>
+      </c>
+      <c r="D62" t="n" s="720">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" s="721" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="C63" t="n" s="722">
+        <v>-0.03</v>
+      </c>
+      <c r="D63" t="n" s="723">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" s="724" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="C64" t="n" s="725">
+        <v>-0.05</v>
+      </c>
+      <c r="D64" t="n" s="726">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" s="727" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="C65" t="n" s="728">
+        <v>-0.01</v>
+      </c>
+      <c r="D65" t="n" s="729">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" s="730" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="C66" t="n" s="731">
+        <v>0.09</v>
+      </c>
+      <c r="D66" t="n" s="732">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3924,10 +5992,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/src/main/resources/templates/bourse_full.xlsx
+++ b/src/main/resources/templates/bourse_full.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13995" windowHeight="5610" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13995" windowHeight="5610"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="267">
   <si>
     <t>AXA</t>
   </si>
@@ -766,9 +766,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>diff from ref (%)</t>
-  </si>
-  <si>
     <t>% ref</t>
   </si>
   <si>
@@ -785,6 +782,48 @@
   </si>
   <si>
     <t>21/04/2020</t>
+  </si>
+  <si>
+    <t>% moyen ref</t>
+  </si>
+  <si>
+    <t>Pourcentage moyen entre le cours actuel et le cours de ref (Ex : -40% si le cours est passé de 10 (ref) à 6 (actuel)</t>
+  </si>
+  <si>
+    <t>% moyen ref (65.0)</t>
+  </si>
+  <si>
+    <t>Pourcentage moyen entre le cours actuel et le cours de ref (Ex : -40% si le cours est passé de 10 (ref) à 6 (actuel))</t>
+  </si>
+  <si>
+    <t>% moyen baissier ref (58.0)</t>
+  </si>
+  <si>
+    <t>Pourcentage moyen des actions baissieres entre le cours actuel et le cours de ref (Ex : -40% si le cours est passé de 10 (ref) à 6 (actuel))</t>
+  </si>
+  <si>
+    <t>% moyen 1 week (35.0)</t>
+  </si>
+  <si>
+    <t>Pourcentage moyen entre le cours actuel et le cours d'il y a une semaine (Ex : -10% si le cours est passé de 10 (il y a une semaine) à 9 (actuel))</t>
+  </si>
+  <si>
+    <t>% Top 10 baissier ref (10)</t>
+  </si>
+  <si>
+    <t>Top 10 des actions ayant le plus baissé depuis le cours de référence</t>
+  </si>
+  <si>
+    <t>22/04/2020</t>
+  </si>
+  <si>
+    <t>% moyen baissier ref (59.0)</t>
+  </si>
+  <si>
+    <t>% moyen 1 week (65.0)</t>
+  </si>
+  <si>
+    <t>23/04/2020</t>
   </si>
 </sst>
 </file>
@@ -830,7 +869,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="733">
+  <cellXfs count="1570">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -839,71 +878,908 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -1623,7 +2499,7 @@
             <c:strRef>
               <c:f>data!$A$6:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>01/12/2019</c:v>
                 </c:pt>
@@ -1647,6 +2523,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>17/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1680,6 +2562,12 @@
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
                   <c:v>15.022</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>14.878</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>14.667999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1707,7 +2595,7 @@
             <c:strRef>
               <c:f>data!$A$6:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>01/12/2019</c:v>
                 </c:pt>
@@ -1731,6 +2619,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>17/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1764,6 +2658,12 @@
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
                   <c:v>14.03</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>13.632</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>13.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1791,7 +2691,7 @@
             <c:strRef>
               <c:f>data!$A$6:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>01/12/2019</c:v>
                 </c:pt>
@@ -1815,6 +2715,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>17/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1848,6 +2754,12 @@
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
                   <c:v>26.035</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>25.01</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>24.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1875,7 +2787,7 @@
             <c:strRef>
               <c:f>data!$A$6:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>01/12/2019</c:v>
                 </c:pt>
@@ -1899,6 +2811,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>17/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1932,6 +2850,12 @@
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
                   <c:v>6.5119999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>6.4539999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>6.3639999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1959,7 +2883,7 @@
             <c:strRef>
               <c:f>data!$A$6:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>01/12/2019</c:v>
                 </c:pt>
@@ -1983,6 +2907,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>17/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2016,6 +2946,12 @@
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
                   <c:v>26.14</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>25.76</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>26.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2043,7 +2979,7 @@
             <c:strRef>
               <c:f>data!$A$6:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>01/12/2019</c:v>
                 </c:pt>
@@ -2067,6 +3003,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>17/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2100,6 +3042,12 @@
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
                   <c:v>9.5579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>9.3559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>9.2100000000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2127,7 +3075,7 @@
             <c:strRef>
               <c:f>data!$A$6:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>01/12/2019</c:v>
                 </c:pt>
@@ -2151,6 +3099,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>17/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2184,6 +3138,12 @@
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
                   <c:v>24.9</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>24.05</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>23.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2211,7 +3171,7 @@
             <c:strRef>
               <c:f>data!$A$6:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>01/12/2019</c:v>
                 </c:pt>
@@ -2235,6 +3195,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>17/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2268,6 +3234,12 @@
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
                   <c:v>13.95</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2284,11 +3256,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="193041408"/>
-        <c:axId val="161371200"/>
+        <c:axId val="200581632"/>
+        <c:axId val="170021952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="193041408"/>
+        <c:axId val="200581632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2297,7 +3269,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161371200"/>
+        <c:crossAx val="170021952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2305,7 +3277,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161371200"/>
+        <c:axId val="170021952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2316,7 +3288,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193041408"/>
+        <c:crossAx val="200581632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2639,9 +3611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2657,7 +3627,193 @@
       <c r="B1" t="s">
         <v>137</v>
       </c>
+      <c r="C1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O1" t="s">
+        <v>137</v>
+      </c>
+      <c r="P1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>137</v>
+      </c>
+      <c r="R1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T1" t="s">
+        <v>137</v>
+      </c>
+      <c r="U1" t="s">
+        <v>137</v>
+      </c>
+      <c r="V1" t="s">
+        <v>137</v>
+      </c>
+      <c r="W1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>137</v>
+      </c>
       <c r="AO1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM1" t="s">
         <v>9</v>
       </c>
       <c r="BN1" t="s">
@@ -4596,409 +5752,803 @@
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B14" t="n">
+        <v>251</v>
+      </c>
+      <c r="B14">
         <v>14.878</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>13.632</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>25.01</v>
       </c>
-      <c r="E14" t="n">
-        <v>6.454</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E14">
+        <v>6.4539999999999997</v>
+      </c>
+      <c r="F14">
         <v>25.76</v>
       </c>
-      <c r="G14" t="n">
-        <v>9.356</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="G14">
+        <v>9.3559999999999999</v>
+      </c>
+      <c r="H14">
         <v>24.05</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>13.2</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>353.7</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>59.3</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>21.34</v>
       </c>
-      <c r="M14" t="n">
-        <v>73.18</v>
-      </c>
-      <c r="N14" t="n">
-        <v>19.135</v>
-      </c>
-      <c r="O14" t="n">
-        <v>29.825</v>
-      </c>
-      <c r="P14" t="n">
+      <c r="M14">
+        <v>73.180000000000007</v>
+      </c>
+      <c r="N14">
+        <v>19.135000000000002</v>
+      </c>
+      <c r="O14">
+        <v>29.824999999999999</v>
+      </c>
+      <c r="P14">
         <v>72.16</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14">
         <v>20.66</v>
       </c>
-      <c r="R14" t="n">
-        <v>66.6</v>
-      </c>
-      <c r="S14" t="n">
-        <v>81.82</v>
-      </c>
-      <c r="T14" t="n">
+      <c r="R14">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="S14">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="T14">
         <v>85.52</v>
       </c>
-      <c r="U14" t="n">
-        <v>79.74</v>
-      </c>
-      <c r="V14" t="n">
-        <v>16.336</v>
-      </c>
-      <c r="W14" t="n">
+      <c r="U14">
+        <v>79.739999999999995</v>
+      </c>
+      <c r="V14">
+        <v>16.335999999999999</v>
+      </c>
+      <c r="W14">
         <v>25.5</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14">
         <v>87.3</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14">
         <v>11.275</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14">
         <v>139.4</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14">
         <v>11.63</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14">
         <v>14.01</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14">
         <v>63.04</v>
       </c>
-      <c r="AD14" t="n">
-        <v>136.7</v>
-      </c>
-      <c r="AE14" t="n">
+      <c r="AD14">
+        <v>136.69999999999999</v>
+      </c>
+      <c r="AE14">
         <v>110.8</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14">
         <v>689.4</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14">
         <v>501.4</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14">
         <v>245.8</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14">
         <v>59.2</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14">
         <v>80.92</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14">
         <v>26.41</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14">
         <v>63.6</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14">
         <v>55.26</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14">
         <v>119.55</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14">
         <v>146.38</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14">
         <v>87.38</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14">
         <v>282.8</v>
       </c>
-      <c r="AR14" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="AS14" t="n">
+      <c r="AR14">
+        <v>106</v>
+      </c>
+      <c r="AS14">
         <v>87.2</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14">
         <v>42.48</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14">
         <v>48.07</v>
       </c>
-      <c r="AV14" t="n">
-        <v>33.41</v>
-      </c>
-      <c r="AW14" t="n">
+      <c r="AV14">
+        <v>33.409999999999997</v>
+      </c>
+      <c r="AW14">
         <v>43.21</v>
       </c>
-      <c r="AX14" t="n">
+      <c r="AX14">
         <v>183.41</v>
       </c>
-      <c r="AY14" t="n">
+      <c r="AY14">
         <v>209.4</v>
       </c>
-      <c r="AZ14" t="n">
+      <c r="AZ14">
         <v>120.11</v>
       </c>
-      <c r="BA14" t="n">
+      <c r="BA14">
         <v>60.36</v>
       </c>
-      <c r="BB14" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>151.92</v>
-      </c>
-      <c r="BD14" t="n">
+      <c r="BB14">
+        <v>95</v>
+      </c>
+      <c r="BC14">
+        <v>151.91999999999999</v>
+      </c>
+      <c r="BD14">
         <v>186.1</v>
       </c>
-      <c r="BE14" t="n">
+      <c r="BE14">
         <v>89.87</v>
       </c>
-      <c r="BF14" t="n">
+      <c r="BF14">
         <v>36.9</v>
       </c>
-      <c r="BG14" t="n">
+      <c r="BG14">
         <v>124.66</v>
       </c>
-      <c r="BH14" t="n">
+      <c r="BH14">
         <v>105.1</v>
       </c>
-      <c r="BI14" t="n">
+      <c r="BI14">
         <v>86.14</v>
       </c>
-      <c r="BJ14" t="n">
+      <c r="BJ14">
         <v>58.47</v>
       </c>
-      <c r="BK14" t="n">
+      <c r="BK14">
         <v>169.37</v>
       </c>
-      <c r="BL14" t="n">
+      <c r="BL14">
         <v>44.5</v>
       </c>
-      <c r="BM14" t="n">
+      <c r="BM14">
         <v>106.65</v>
       </c>
-      <c r="BN14" t="n">
+      <c r="BN14">
         <v>56.6</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B15" t="n">
-        <v>14.668</v>
-      </c>
-      <c r="C15" t="n">
+        <v>252</v>
+      </c>
+      <c r="B15">
+        <v>14.667999999999999</v>
+      </c>
+      <c r="C15">
         <v>13.43</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>24.85</v>
       </c>
-      <c r="E15" t="n">
-        <v>6.364</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E15">
+        <v>6.3639999999999999</v>
+      </c>
+      <c r="F15">
         <v>26.26</v>
       </c>
-      <c r="G15" t="n">
-        <v>9.21</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="G15">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="H15">
         <v>23.94</v>
       </c>
-      <c r="I15" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="I15">
+        <v>13</v>
+      </c>
+      <c r="J15">
         <v>354.45</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>59.64</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>20.69</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>72.28</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15">
         <v>17.785</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15">
         <v>29.48</v>
       </c>
-      <c r="P15" t="n">
-        <v>71.46</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P15">
+        <v>71.459999999999994</v>
+      </c>
+      <c r="Q15">
         <v>20.58</v>
       </c>
-      <c r="R15" t="n">
-        <v>66.9</v>
-      </c>
-      <c r="S15" t="n">
+      <c r="R15">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="S15">
         <v>82.38</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15">
         <v>88.39</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15">
         <v>76.88</v>
       </c>
-      <c r="V15" t="n">
-        <v>16.222</v>
-      </c>
-      <c r="W15" t="n">
+      <c r="V15">
+        <v>16.222000000000001</v>
+      </c>
+      <c r="W15">
         <v>25.23</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X15">
         <v>86.82</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y15">
         <v>11.18</v>
       </c>
-      <c r="Z15" t="n">
-        <v>139.0</v>
-      </c>
-      <c r="AA15" t="n">
+      <c r="Z15">
+        <v>139</v>
+      </c>
+      <c r="AA15">
         <v>11.68</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15">
         <v>13.855</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15">
         <v>63.24</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15">
         <v>135.1</v>
       </c>
-      <c r="AE15" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="AF15" t="n">
+      <c r="AE15">
+        <v>108</v>
+      </c>
+      <c r="AF15">
         <v>684.6</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15">
         <v>497.8</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15">
         <v>254.8</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15">
         <v>55.96</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>80.54</v>
-      </c>
-      <c r="AK15" t="n">
+      <c r="AJ15">
+        <v>80.540000000000006</v>
+      </c>
+      <c r="AK15">
         <v>25.59</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15">
         <v>64.78</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15">
         <v>53.02</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15">
         <v>119.4</v>
       </c>
-      <c r="AO15" t="n">
-        <v>143.7</v>
-      </c>
-      <c r="AP15" t="n">
+      <c r="AO15">
+        <v>143.69999999999999</v>
+      </c>
+      <c r="AP15">
         <v>84.01</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15">
         <v>276.93</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15">
         <v>106.5</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15">
         <v>83.51</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15">
         <v>42.54</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15">
         <v>46.59</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15">
         <v>31.53</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AW15">
         <v>41.18</v>
       </c>
-      <c r="AX15" t="n">
+      <c r="AX15">
         <v>180.5</v>
       </c>
-      <c r="AY15" t="n">
+      <c r="AY15">
         <v>206.16</v>
       </c>
-      <c r="AZ15" t="n">
+      <c r="AZ15">
         <v>120.58</v>
       </c>
-      <c r="BA15" t="n">
+      <c r="BA15">
         <v>59.18</v>
       </c>
-      <c r="BB15" t="n">
+      <c r="BB15">
         <v>91.64</v>
       </c>
-      <c r="BC15" t="n">
-        <v>151.83</v>
-      </c>
-      <c r="BD15" t="n">
+      <c r="BC15">
+        <v>151.83000000000001</v>
+      </c>
+      <c r="BD15">
         <v>181.7</v>
       </c>
-      <c r="BE15" t="n">
+      <c r="BE15">
         <v>87.86</v>
       </c>
-      <c r="BF15" t="n">
+      <c r="BF15">
         <v>36.08</v>
       </c>
-      <c r="BG15" t="n">
+      <c r="BG15">
         <v>120.58</v>
       </c>
-      <c r="BH15" t="n">
+      <c r="BH15">
         <v>101.75</v>
       </c>
-      <c r="BI15" t="n">
+      <c r="BI15">
         <v>86.14</v>
       </c>
-      <c r="BJ15" t="n">
+      <c r="BJ15">
         <v>58.15</v>
       </c>
-      <c r="BK15" t="n">
+      <c r="BK15">
         <v>164.22</v>
       </c>
-      <c r="BL15" t="n">
+      <c r="BL15">
         <v>42.85</v>
       </c>
-      <c r="BM15" t="n">
+      <c r="BM15">
         <v>102.21</v>
       </c>
-      <c r="BN15" t="n">
+      <c r="BN15">
         <v>56.97</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14.734</v>
+      </c>
+      <c r="C16" t="n">
+        <v>13.512</v>
+      </c>
+      <c r="D16" t="n">
+        <v>25.535</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6.476</v>
+      </c>
+      <c r="F16" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="G16" t="n">
+        <v>9.136</v>
+      </c>
+      <c r="H16" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>353.45</v>
+      </c>
+      <c r="K16" t="n">
+        <v>59.98</v>
+      </c>
+      <c r="L16" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="M16" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="N16" t="n">
+        <v>17.98</v>
+      </c>
+      <c r="O16" t="n">
+        <v>31.115</v>
+      </c>
+      <c r="P16" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>65.14</v>
+      </c>
+      <c r="S16" t="n">
+        <v>82.56</v>
+      </c>
+      <c r="T16" t="n">
+        <v>88.16</v>
+      </c>
+      <c r="U16" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>15.83</v>
+      </c>
+      <c r="W16" t="n">
+        <v>24.65</v>
+      </c>
+      <c r="X16" t="n">
+        <v>83.78</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>11.305</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>137.75</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>104.7</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>672.6</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>464.95</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>248.1</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>26.17</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>61.84</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>53.53</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>117.45</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>142.6</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>82.715</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>276.485</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>84.52</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>41.655</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>45.705</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>31.494</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>42.145</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>175.56</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>205.34</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>119.49</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>60.03</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>153.48</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>89.09</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>36.35</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>119.78</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>86.14</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>58.085</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>166.254</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>43.19</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>55.8669</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" t="n">
+        <v>14.792</v>
+      </c>
+      <c r="C17" t="n">
+        <v>13.872</v>
+      </c>
+      <c r="D17" t="n">
+        <v>26.835</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6.646</v>
+      </c>
+      <c r="F17" t="n">
+        <v>26.02</v>
+      </c>
+      <c r="G17" t="n">
+        <v>9.144</v>
+      </c>
+      <c r="H17" t="n">
+        <v>23.88</v>
+      </c>
+      <c r="I17" t="n">
+        <v>14.45</v>
+      </c>
+      <c r="J17" t="n">
+        <v>348.15</v>
+      </c>
+      <c r="K17" t="n">
+        <v>62.76</v>
+      </c>
+      <c r="L17" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>69.94</v>
+      </c>
+      <c r="N17" t="n">
+        <v>18.465</v>
+      </c>
+      <c r="O17" t="n">
+        <v>31.975</v>
+      </c>
+      <c r="P17" t="n">
+        <v>68.44</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>21.76</v>
+      </c>
+      <c r="R17" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="S17" t="n">
+        <v>83.04</v>
+      </c>
+      <c r="T17" t="n">
+        <v>89.91</v>
+      </c>
+      <c r="U17" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>16.006</v>
+      </c>
+      <c r="W17" t="n">
+        <v>25.43</v>
+      </c>
+      <c r="X17" t="n">
+        <v>82.68</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>11.385</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>137.35</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>13.57</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>61.92</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>136.8</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>106.4</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>687.2</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>454.6</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>246.3</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>59.56</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>79.56</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>26.48</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>61.12</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>143.62</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>276.1</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>84.44</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>31.84</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>42.11</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>175.98</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>204.11</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>119.33</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>89.33</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>186.52</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>88.775</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>36.24</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>119.41</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>86.14</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>57.96</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>166.55</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>43.31</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>55.92</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
@@ -5056,930 +6606,930 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" t="s">
         <v>250</v>
       </c>
-      <c r="D1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="568" t="n">
-        <v>-0.41</v>
-      </c>
-      <c r="C2" t="n" s="569">
-        <v>-0.06</v>
-      </c>
-      <c r="D2" t="n" s="570">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1371" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="C2" s="1372" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D2" s="1373" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="571" t="n">
-        <v>-0.53</v>
-      </c>
-      <c r="C3" t="n" s="572">
-        <v>-0.11</v>
-      </c>
-      <c r="D3" t="n" s="573">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1374" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="C3" s="1375" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D3" s="1376" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="574" t="n">
-        <v>-0.51</v>
-      </c>
-      <c r="C4" t="n" s="575">
-        <v>-0.12</v>
-      </c>
-      <c r="D4" t="n" s="576">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1377" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="C4" s="1378" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="1379" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="577" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="C5" t="n" s="578">
-        <v>-0.07</v>
-      </c>
-      <c r="D5" t="n" s="579">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="1380" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="C5" s="1381" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D5" s="1382" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="580" t="n">
-        <v>-0.32</v>
-      </c>
-      <c r="C6" t="n" s="581">
-        <v>-0.06</v>
-      </c>
-      <c r="D6" t="n" s="582">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="1383" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="C6" s="1384" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="1385" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="583" t="n">
-        <v>-0.36</v>
-      </c>
-      <c r="C7" t="n" s="584">
-        <v>-0.06</v>
-      </c>
-      <c r="D7" t="n" s="585">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="1386" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="C7" s="1387" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="D7" s="1388" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="586" t="n">
+      <c r="B8" s="1389" t="n">
         <v>-0.35</v>
       </c>
-      <c r="C8" t="n" s="587">
-        <v>-0.06</v>
-      </c>
-      <c r="D8" t="n" s="588">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="1390" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="D8" s="1391" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="589" t="n">
-        <v>-0.61</v>
-      </c>
-      <c r="C9" t="n" s="590">
-        <v>-0.13</v>
-      </c>
-      <c r="D9" t="n" s="591">
-        <v>-0.07</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="1392" t="n">
+        <v>-0.56</v>
+      </c>
+      <c r="C9" s="1393" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D9" s="1394" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="592" t="n">
-        <v>-0.13</v>
-      </c>
-      <c r="C10" t="n" s="593">
-        <v>0.0</v>
-      </c>
-      <c r="D10" t="n" s="594">
+      <c r="B10" s="1395" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="C10" s="1396" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D10" s="1397" t="n">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="595" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C11" t="s">
-        <v>249</v>
-      </c>
-      <c r="D11" t="n" s="596">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="1398" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="C11" t="n" s="1399">
+        <v>0.11</v>
+      </c>
+      <c r="D11" s="1400" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>187</v>
       </c>
-      <c r="B12" s="597" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>249</v>
-      </c>
-      <c r="D12" t="n" s="598">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="1401" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="C12" t="n" s="1402">
+        <v>-0.02</v>
+      </c>
+      <c r="D12" s="1403" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="599" t="n">
-        <v>-0.27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>249</v>
-      </c>
-      <c r="D13" t="n" s="600">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="1404" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="C13" t="n" s="1405">
+        <v>-0.04</v>
+      </c>
+      <c r="D13" s="1406" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>191</v>
       </c>
-      <c r="B14" s="601" t="n">
-        <v>-0.24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>249</v>
-      </c>
-      <c r="D14" t="n" s="602">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="1407" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="C14" t="n" s="1408">
+        <v>-0.05</v>
+      </c>
+      <c r="D14" s="1409" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>193</v>
       </c>
-      <c r="B15" s="603" t="n">
-        <v>-0.38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>249</v>
-      </c>
-      <c r="D15" t="n" s="604">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="1410" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="C15" t="n" s="1411">
+        <v>0.05</v>
+      </c>
+      <c r="D15" s="1412" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>195</v>
       </c>
-      <c r="B16" s="605" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>249</v>
-      </c>
-      <c r="D16" t="n" s="606">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="1413" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="C16" t="n" s="1414">
+        <v>-0.01</v>
+      </c>
+      <c r="D16" s="1415" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>197</v>
       </c>
-      <c r="B17" s="607" t="n">
-        <v>-0.08</v>
-      </c>
-      <c r="C17" t="s">
-        <v>249</v>
-      </c>
-      <c r="D17" t="n" s="608">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1416" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="C17" t="n" s="1417">
+        <v>0.04</v>
+      </c>
+      <c r="D17" s="1418" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>199</v>
       </c>
-      <c r="B18" s="609" t="n">
-        <v>-0.37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>249</v>
-      </c>
-      <c r="D18" t="n" s="610">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1419" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="C18" t="n" s="1420">
+        <v>0.04</v>
+      </c>
+      <c r="D18" s="1421" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>201</v>
       </c>
-      <c r="B19" s="611" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="C19" t="s">
-        <v>249</v>
-      </c>
-      <c r="D19" t="n" s="612">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1422" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="C19" t="n" s="1423">
+        <v>0.04</v>
+      </c>
+      <c r="D19" s="1424" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>203</v>
       </c>
-      <c r="B20" s="613" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C20" t="s">
-        <v>249</v>
-      </c>
-      <c r="D20" t="n" s="614">
+      <c r="B20" s="1425" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C20" t="n" s="1426">
+        <v>0.07</v>
+      </c>
+      <c r="D20" s="1427" t="n">
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>205</v>
       </c>
-      <c r="B21" s="615" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="C21" t="s">
-        <v>249</v>
-      </c>
-      <c r="D21" t="n" s="616">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1428" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="C21" t="n" s="1429">
+        <v>-0.01</v>
+      </c>
+      <c r="D21" s="1430" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>207</v>
       </c>
-      <c r="B22" s="617" t="n">
+      <c r="B22" s="1431" t="n">
         <v>-0.63</v>
       </c>
-      <c r="C22" t="s">
-        <v>249</v>
-      </c>
-      <c r="D22" t="n" s="618">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="n" s="1432">
+        <v>-0.03</v>
+      </c>
+      <c r="D22" s="1433" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="619" t="n">
+      <c r="B23" s="1434" t="n">
         <v>-0.37</v>
       </c>
-      <c r="C23" t="s">
-        <v>249</v>
-      </c>
-      <c r="D23" t="n" s="620">
+      <c r="C23" t="n" s="1435">
         <v>-0.04</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D23" s="1436" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>211</v>
       </c>
-      <c r="B24" s="621" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>249</v>
-      </c>
-      <c r="D24" t="n" s="622">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="1437" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="C24" t="n" s="1438">
+        <v>0.0</v>
+      </c>
+      <c r="D24" s="1439" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>213</v>
       </c>
-      <c r="B25" s="623" t="n">
-        <v>-0.24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>249</v>
-      </c>
-      <c r="D25" t="n" s="624">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1440" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="C25" t="n" s="1441">
+        <v>0.02</v>
+      </c>
+      <c r="D25" s="1442" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>215</v>
       </c>
-      <c r="B26" s="625" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="C26" t="s">
-        <v>249</v>
-      </c>
-      <c r="D26" t="n" s="626">
+      <c r="B26" s="1443" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="C26" t="n" s="1444">
+        <v>0.01</v>
+      </c>
+      <c r="D26" s="1445" t="n">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>217</v>
       </c>
-      <c r="B27" s="627" t="n">
-        <v>-0.47</v>
-      </c>
-      <c r="C27" t="s">
-        <v>249</v>
-      </c>
-      <c r="D27" t="n" s="628">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1446" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="C27" t="n" s="1447">
+        <v>0.07</v>
+      </c>
+      <c r="D27" s="1448" t="n">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>219</v>
       </c>
-      <c r="B28" s="629" t="n">
-        <v>-0.08</v>
-      </c>
-      <c r="C28" t="s">
-        <v>249</v>
-      </c>
-      <c r="D28" t="n" s="630">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="1449" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="C28" t="n" s="1450">
+        <v>-0.03</v>
+      </c>
+      <c r="D28" s="1451" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>221</v>
       </c>
-      <c r="B29" s="631" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="C29" t="s">
-        <v>249</v>
-      </c>
-      <c r="D29" t="n" s="632">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="1452" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="C29" t="n" s="1453">
+        <v>0.0</v>
+      </c>
+      <c r="D29" s="1454" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>223</v>
       </c>
-      <c r="B30" s="633" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="C30" t="s">
-        <v>249</v>
-      </c>
-      <c r="D30" t="n" s="634">
+      <c r="B30" s="1455" t="n">
         <v>-0.04</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="n" s="1456">
+        <v>-0.01</v>
+      </c>
+      <c r="D30" s="1457" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>225</v>
       </c>
-      <c r="B31" s="635" t="n">
-        <v>-0.23</v>
-      </c>
-      <c r="C31" t="s">
-        <v>249</v>
-      </c>
-      <c r="D31" t="n" s="636">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1458" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="C31" t="n" s="1459">
+        <v>-0.02</v>
+      </c>
+      <c r="D31" s="1460" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>227</v>
       </c>
-      <c r="B32" s="637" t="n">
+      <c r="B32" s="1461" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C32" t="n" s="1462">
         <v>0.0</v>
       </c>
-      <c r="C32" t="s">
-        <v>249</v>
-      </c>
-      <c r="D32" t="n" s="638">
+      <c r="D32" s="1463" t="n">
         <v>0.0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>229</v>
       </c>
-      <c r="B33" s="639" t="n">
+      <c r="B33" s="1464" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="C33" t="n" s="1465">
+        <v>-0.06</v>
+      </c>
+      <c r="D33" s="1466" t="n">
         <v>-0.09</v>
       </c>
-      <c r="C33" t="s">
-        <v>249</v>
-      </c>
-      <c r="D33" t="n" s="640">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>231</v>
       </c>
-      <c r="B34" s="641" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="C34" t="s">
-        <v>249</v>
-      </c>
-      <c r="D34" t="n" s="642">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1467" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="C34" t="n" s="1468">
+        <v>0.01</v>
+      </c>
+      <c r="D34" s="1469" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>233</v>
       </c>
-      <c r="B35" s="643" t="n">
-        <v>-0.22</v>
-      </c>
-      <c r="C35" t="s">
-        <v>249</v>
-      </c>
-      <c r="D35" t="n" s="644">
-        <v>-0.07</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1470" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="C35" t="n" s="1471">
+        <v>0.04</v>
+      </c>
+      <c r="D35" s="1472" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>235</v>
       </c>
-      <c r="B36" s="645" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="C36" t="s">
-        <v>249</v>
-      </c>
-      <c r="D36" t="n" s="646">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1473" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="C36" t="n" s="1474">
+        <v>0.01</v>
+      </c>
+      <c r="D36" s="1475" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>237</v>
       </c>
-      <c r="B37" s="647" t="n">
-        <v>-0.31</v>
-      </c>
-      <c r="C37" t="s">
-        <v>249</v>
-      </c>
-      <c r="D37" t="n" s="648">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1476" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="C37" t="n" s="1477">
+        <v>0.02</v>
+      </c>
+      <c r="D37" s="1478" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>239</v>
       </c>
-      <c r="B38" s="649" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="C38" t="s">
-        <v>249</v>
-      </c>
-      <c r="D38" t="n" s="650">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="1479" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="C38" t="n" s="1480">
+        <v>0.03</v>
+      </c>
+      <c r="D38" s="1481" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>241</v>
       </c>
-      <c r="B39" s="651" t="n">
+      <c r="B39" s="1482" t="n">
         <v>-0.6</v>
       </c>
-      <c r="C39" t="s">
-        <v>249</v>
-      </c>
-      <c r="D39" t="n" s="652">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="n" s="1483">
+        <v>-0.03</v>
+      </c>
+      <c r="D39" s="1484" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>243</v>
       </c>
-      <c r="B40" s="653" t="n">
+      <c r="B40" s="1485" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="C40" t="n" s="1486">
         <v>-0.03</v>
       </c>
-      <c r="C40" t="s">
-        <v>249</v>
-      </c>
-      <c r="D40" t="n" s="654">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D40" s="1487" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="655" t="n">
+      <c r="B41" s="1488" t="n">
         <v>-0.16</v>
       </c>
-      <c r="C41" t="n" s="656">
-        <v>-0.02</v>
-      </c>
-      <c r="D41" t="n" s="657">
+      <c r="C41" s="1489" t="n">
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D41" s="1490" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="658" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="C42" t="n" s="659">
-        <v>-0.07</v>
-      </c>
-      <c r="D42" t="n" s="660">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="1491" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="C42" s="1492" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="D42" s="1493" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="661" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C43" t="n" s="662">
-        <v>-0.01</v>
-      </c>
-      <c r="D43" t="n" s="663">
+      <c r="B43" s="1494" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C43" s="1495" t="n">
         <v>-0.03</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D43" s="1496" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="664" t="n">
+      <c r="B44" s="1497" t="n">
         <v>-0.2</v>
       </c>
-      <c r="C44" t="n" s="665">
-        <v>-0.07</v>
-      </c>
-      <c r="D44" t="n" s="666">
+      <c r="C44" s="1498" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="D44" s="1499" t="n">
         <v>0.0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="667" t="n">
-        <v>-0.29</v>
-      </c>
-      <c r="C45" t="n" s="668">
-        <v>-0.02</v>
-      </c>
-      <c r="D45" t="n" s="669">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="1500" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="C45" s="1501" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D45" s="1502" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="670" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="C46" t="n" s="671">
-        <v>0.03</v>
-      </c>
-      <c r="D46" t="n" s="672">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="1503" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="C46" s="1504" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D46" s="1505" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="673" t="n">
-        <v>-0.13</v>
-      </c>
-      <c r="C47" t="n" s="674">
-        <v>-0.01</v>
-      </c>
-      <c r="D47" t="n" s="675">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="1506" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="C47" s="1507" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="D47" s="1508" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="676" t="n">
-        <v>-0.41</v>
-      </c>
-      <c r="C48" t="n" s="677">
-        <v>-0.1</v>
-      </c>
-      <c r="D48" t="n" s="678">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="1509" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="C48" s="1510" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="D48" s="1511" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="679" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="C49" t="n" s="680">
-        <v>-0.04</v>
-      </c>
-      <c r="D49" t="n" s="681">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="1512" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="C49" s="1513" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D49" s="1514" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="682" t="n">
-        <v>-0.18</v>
-      </c>
-      <c r="C50" t="n" s="683">
-        <v>0.01</v>
-      </c>
-      <c r="D50" t="n" s="684">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="1515" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="C50" s="1516" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="D50" s="1517" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="685" t="n">
-        <v>-0.07</v>
-      </c>
-      <c r="C51" t="n" s="686">
-        <v>0.04</v>
-      </c>
-      <c r="D51" t="n" s="687">
+      <c r="B51" s="1518" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="C51" s="1519" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D51" s="1520" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="688" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="C52" t="n" s="689">
+      <c r="B52" s="1521" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="C52" s="1522" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D52" s="1523" t="n">
         <v>-0.01</v>
       </c>
-      <c r="D52" t="n" s="690">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="691" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C53" t="n" s="692">
-        <v>0.01</v>
-      </c>
-      <c r="D53" t="n" s="693">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="1524" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C53" s="1525" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D53" s="1526" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="694" t="n">
-        <v>-0.31</v>
-      </c>
-      <c r="C54" t="n" s="695">
-        <v>-0.07</v>
-      </c>
-      <c r="D54" t="n" s="696">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="1527" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="C54" s="1528" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="D54" s="1529" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="697" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C55" t="n" s="698">
-        <v>0.08</v>
-      </c>
-      <c r="D55" t="n" s="699">
+      <c r="B55" s="1530" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C55" s="1531" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D55" s="1532" t="n">
         <v>0.01</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="700" t="n">
-        <v>-0.07</v>
-      </c>
-      <c r="C56" t="n" s="701">
-        <v>0.01</v>
-      </c>
-      <c r="D56" t="n" s="702">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="1533" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="C56" s="1534" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D56" s="1535" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="703" t="n">
-        <v>-0.07</v>
-      </c>
-      <c r="C57" t="n" s="704">
+      <c r="B57" s="1536" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="C57" s="1537" t="n">
         <v>0.04</v>
       </c>
-      <c r="D57" t="n" s="705">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D57" s="1538" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="706" t="n">
+      <c r="B58" s="1539" t="n">
         <v>-0.07</v>
       </c>
-      <c r="C58" t="n" s="707">
-        <v>0.03</v>
-      </c>
-      <c r="D58" t="n" s="708">
+      <c r="C58" s="1540" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D58" s="1541" t="n">
         <v>0.0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="709" t="n">
+      <c r="B59" s="1542" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="C59" s="1543" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="D59" s="1544" t="n">
         <v>-0.01</v>
       </c>
-      <c r="C59" t="n" s="710">
-        <v>0.04</v>
-      </c>
-      <c r="D59" t="n" s="711">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>123</v>
       </c>
-      <c r="B60" s="712" t="n">
+      <c r="B60" s="1545" t="n">
         <v>-0.26</v>
       </c>
-      <c r="C60" t="n" s="713">
-        <v>-0.04</v>
-      </c>
-      <c r="D60" t="n" s="714">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" s="1546" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="D60" s="1547" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>125</v>
       </c>
-      <c r="B61" s="715" t="n">
+      <c r="B61" s="1548" t="n">
         <v>-0.42</v>
       </c>
-      <c r="C61" t="n" s="716">
+      <c r="C61" s="1549" t="n">
         <v>0.0</v>
       </c>
-      <c r="D61" t="n" s="717">
+      <c r="D61" s="1550" t="n">
         <v>0.0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>127</v>
       </c>
-      <c r="B62" s="718" t="n">
-        <v>-0.03</v>
-      </c>
-      <c r="C62" t="n" s="719">
-        <v>0.03</v>
-      </c>
-      <c r="D62" t="n" s="720">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="1551" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="C62" s="1552" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D62" s="1553" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>129</v>
       </c>
-      <c r="B63" s="721" t="n">
-        <v>-0.11</v>
-      </c>
-      <c r="C63" t="n" s="722">
-        <v>-0.03</v>
-      </c>
-      <c r="D63" t="n" s="723">
+      <c r="B63" s="1554" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="C63" s="1555" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D63" s="1556" t="n">
         <v>0.01</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>131</v>
       </c>
-      <c r="B64" s="724" t="n">
-        <v>-0.28</v>
-      </c>
-      <c r="C64" t="n" s="725">
-        <v>-0.05</v>
-      </c>
-      <c r="D64" t="n" s="726">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="1557" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="C64" s="1558" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D64" s="1559" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>133</v>
       </c>
-      <c r="B65" s="727" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="C65" t="n" s="728">
+      <c r="B65" s="1560" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="C65" s="1561" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="D65" s="1562" t="n">
         <v>-0.01</v>
       </c>
-      <c r="D65" t="n" s="729">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>148</v>
       </c>
-      <c r="B66" s="730" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="C66" t="n" s="731">
-        <v>0.09</v>
-      </c>
-      <c r="D66" t="n" s="732">
-        <v>0.0</v>
+      <c r="B66" s="1563" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="C66" s="1564" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D66" s="1565" t="n">
+        <v>-0.02</v>
       </c>
     </row>
   </sheetData>
@@ -5990,7 +7540,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5999,6 +7549,55 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>246</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" t="n" s="1566">
+        <v>-0.21215384615384617</v>
+      </c>
+      <c r="D2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" t="n" s="1567">
+        <v>-0.2503448275862069</v>
+      </c>
+      <c r="D3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" t="n" s="1568">
+        <v>0.0069230769230769216</v>
+      </c>
+      <c r="D4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" t="n" s="1569">
+        <v>-0.356</v>
+      </c>
+      <c r="D5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="n" s="504">
+        <v>-0.21230769230769236</v>
       </c>
     </row>
   </sheetData>
